--- a/Backend/Model Metrics/classification_report_rfc_CAP2_vaso.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP2_vaso.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9761092150170648</v>
+        <v>0.9651162790697675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8746177370030581</v>
+        <v>0.8556701030927835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9225806451612903</v>
+        <v>0.907103825136612</v>
       </c>
       <c r="E2" t="n">
-        <v>327</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.293103448275862</v>
+        <v>0.3385826771653543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6346063316464634</v>
+        <v>0.6518494781175609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7914755351681957</v>
+        <v>0.7802940679398344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.668607395751377</v>
+        <v>0.6822753168236252</v>
       </c>
       <c r="E5" t="n">
-        <v>351</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9294079660091193</v>
+        <v>0.9056784101488201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8878492606266013</v>
+        <v>0.8644458499979114</v>
       </c>
       <c r="E6" t="n">
-        <v>351</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Model Metrics/classification_report_rfc_CAP2_vaso.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP2_vaso.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9651162790697675</v>
+        <v>0.9645669291338582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8556701030927835</v>
+        <v>0.8419243986254296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.907103825136612</v>
+        <v>0.8990825688073394</v>
       </c>
       <c r="E2" t="n">
         <v>582</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3185185185185185</v>
       </c>
       <c r="C3" t="n">
         <v>0.7049180327868853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4574468085106383</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="E3" t="n">
         <v>61</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6518494781175609</v>
+        <v>0.6415427238261884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7802940679398344</v>
+        <v>0.7734212157061574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6822753168236252</v>
+        <v>0.6689290395057105</v>
       </c>
       <c r="E5" t="n">
         <v>643</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9056784101488201</v>
+        <v>0.9032777331034761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8644458499979114</v>
+        <v>0.8554142475401564</v>
       </c>
       <c r="E6" t="n">
         <v>643</v>
